--- a/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
+++ b/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/2.Xay-dung-cac-ung-dung-voi-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF3A82-C763-D14D-A949-957B7A1859A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FA57D-05FC-BB41-ABEB-759CD7F5FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2320" windowWidth="33240" windowHeight="17340" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
+    <workbookView xWindow="420" yWindow="2360" windowWidth="33240" windowHeight="17340" activeTab="1" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Read json" sheetId="1" r:id="rId1"/>
+    <sheet name="ShowWord" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
   <si>
     <t>構成</t>
   </si>
@@ -410,6 +411,39 @@
   </si>
   <si>
     <t>・Nhập vào từ có tồn tại để tìm kiếm</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spelling = word[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    means    = join(word[1:], "\n")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return "Spelling: {spelling} \nMeans:\n{means}".format(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        spelling    = spelling, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        means       = means </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>def join(listInput, sep):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result = ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for el in listInput:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        result += '+ {}{}'.format(el, sep)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -567,18 +601,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,6 +1252,369 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>648705</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>164461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557338</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>27410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35332ED-DFE0-367C-4348-5CA98A8523F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1471007" y="27300432"/>
+          <a:ext cx="730935" cy="5893165"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91680</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>35041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>97267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6258BB34-5133-3D6B-1CE6-5CB1FF91F01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="917180" y="24622241"/>
+          <a:ext cx="15161020" cy="3313426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81284</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>294636</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542A3769-5ECB-9794-9DDA-6B352C0EABCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904244" y="28956000"/>
+          <a:ext cx="11734792" cy="2028091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518B906B-8531-37A0-775E-8D5E6323A7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1209040" y="20279360"/>
+          <a:ext cx="467360" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB031B8-450D-998A-4A14-1FD6C26CD268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1229360" y="21915120"/>
+          <a:ext cx="416560" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4415B102-9339-E6D8-584F-5D0F2C791A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1351280" y="22291040"/>
+          <a:ext cx="751840" cy="7426960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6BEA5F-BEAC-6581-9AD3-373CDD5177AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495040" y="22321520"/>
+          <a:ext cx="213360" cy="7559040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1519,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC733E1F-6847-B648-9A9E-91F446BFA840}">
   <dimension ref="A3:T180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M155" sqref="M155"/>
+    <sheetView topLeftCell="A167" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2868,7 @@
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="12" t="s">
+      <c r="C90" t="s">
         <v>82</v>
       </c>
       <c r="D90" s="1"/>
@@ -2487,780 +2885,272 @@
       <c r="G91" s="1"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="15"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="14"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="13" t="s">
+      <c r="A95" s="15"/>
+      <c r="B95" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="18"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="14"/>
+      <c r="T95" s="16"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16" t="s">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="18"/>
+      <c r="O96" s="16"/>
+      <c r="T96" s="16"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16" t="s">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="18"/>
+      <c r="O97" s="16"/>
+      <c r="T97" s="16"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16" t="s">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="18"/>
+      <c r="O98" s="16"/>
+      <c r="T98" s="16"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16" t="s">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="18"/>
+      <c r="O99" s="16"/>
+      <c r="T99" s="16"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="18"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="19"/>
+      <c r="T100" s="16"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="18"/>
+      <c r="A101" s="15"/>
+      <c r="T101" s="16"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="17" t="s">
+      <c r="A102" s="15"/>
+      <c r="B102" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="18"/>
+      <c r="T102" s="16"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="17" t="s">
+      <c r="A103" s="15"/>
+      <c r="B103" t="s">
         <v>97</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="18"/>
+      <c r="T103" s="16"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="18"/>
+      <c r="A104" s="15"/>
+      <c r="T104" s="16"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="18"/>
+      <c r="A105" s="15"/>
+      <c r="T105" s="16"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="18"/>
+      <c r="A106" s="15"/>
+      <c r="T106" s="16"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="17"/>
-      <c r="T107" s="18"/>
+      <c r="A107" s="15"/>
+      <c r="T107" s="16"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="18"/>
+      <c r="A108" s="15"/>
+      <c r="T108" s="16"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="18"/>
+      <c r="A109" s="15"/>
+      <c r="T109" s="16"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="18"/>
+      <c r="A110" s="15"/>
+      <c r="T110" s="16"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="18"/>
+      <c r="A111" s="15"/>
+      <c r="T111" s="16"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="16"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="18"/>
+      <c r="A112" s="15"/>
+      <c r="T112" s="16"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
-      <c r="S113" s="17"/>
-      <c r="T113" s="18"/>
+      <c r="A113" s="15"/>
+      <c r="T113" s="16"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="18"/>
+      <c r="A114" s="15"/>
+      <c r="T114" s="16"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="16"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="18"/>
+      <c r="A115" s="15"/>
+      <c r="T115" s="16"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="16"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="18"/>
+      <c r="A116" s="15"/>
+      <c r="T116" s="16"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="17"/>
-      <c r="S117" s="17"/>
-      <c r="T117" s="18"/>
+      <c r="A117" s="15"/>
+      <c r="T117" s="16"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="18"/>
+      <c r="A118" s="15"/>
+      <c r="T118" s="16"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="18"/>
+      <c r="A119" s="15"/>
+      <c r="T119" s="16"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A120" s="16"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="18"/>
+      <c r="A120" s="15"/>
+      <c r="T120" s="16"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A121" s="16"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="18"/>
+      <c r="A121" s="15"/>
+      <c r="T121" s="16"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A122" s="16"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
-      <c r="R122" s="17"/>
-      <c r="S122" s="17"/>
-      <c r="T122" s="18"/>
+      <c r="A122" s="15"/>
+      <c r="T122" s="16"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A123" s="16"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="18"/>
+      <c r="A123" s="15"/>
+      <c r="T123" s="16"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="20"/>
-      <c r="P124" s="20"/>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="20"/>
-      <c r="S124" s="20"/>
-      <c r="T124" s="21"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="19"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="15"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="18"/>
+      <c r="B129" s="15"/>
+      <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="18"/>
+      <c r="F130" s="16"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="16"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="18"/>
+      <c r="B131" s="15"/>
+      <c r="F131" s="16"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="16"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="18"/>
+      <c r="B132" s="15"/>
+      <c r="F132" s="16"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="18"/>
+      <c r="F133" s="16"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="16"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="18"/>
+      <c r="B134" s="15"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="18"/>
+      <c r="F135" s="16"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="18"/>
+      <c r="F136" s="16"/>
       <c r="G136" t="s">
         <v>83</v>
       </c>
@@ -3269,77 +3159,59 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="18"/>
+      <c r="F137" s="16"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
+      <c r="F138" s="16"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="21"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="19"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="15"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="16"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="18"/>
+      <c r="B144" s="15"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="18"/>
+      <c r="F145" s="16"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="18"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="18"/>
+      <c r="F147" s="16"/>
       <c r="G147" t="s">
         <v>83</v>
       </c>
@@ -3348,499 +3220,2516 @@
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="18"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="18"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="18"/>
+      <c r="F150" s="16"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="18"/>
+      <c r="F152" s="16"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
+      <c r="F153" s="16"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B154" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F154" s="16"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B155" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" s="16"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B156" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="16"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="19"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="14"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" s="15"/>
+      <c r="B161" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="13"/>
+      <c r="O161" s="13"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="16"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" s="15"/>
+      <c r="B162" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="16"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="16"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="P165" s="16"/>
+      <c r="Q165" s="16"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
+      <c r="P166" s="16"/>
+      <c r="Q166" s="16"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="P167" s="16"/>
+      <c r="Q167" s="16"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="P168" s="16"/>
+      <c r="Q168" s="16"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="18"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="16"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="Q170" s="16"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" s="15"/>
+      <c r="Q171" s="16"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" s="15"/>
+      <c r="B172" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="13"/>
+      <c r="M172" s="13"/>
+      <c r="N172" s="13"/>
+      <c r="O172" s="13"/>
+      <c r="P172" s="14"/>
+      <c r="Q172" s="16"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="P173" s="16"/>
+      <c r="Q173" s="16"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" s="15"/>
+      <c r="B174" s="15"/>
+      <c r="P174" s="16"/>
+      <c r="Q174" s="16"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
+      <c r="P175" s="16"/>
+      <c r="Q175" s="16"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
+      <c r="P176" s="16"/>
+      <c r="Q176" s="16"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
+      <c r="P177" s="16"/>
+      <c r="Q177" s="16"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
+      <c r="P178" s="16"/>
+      <c r="Q178" s="16"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A179" s="15"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="16"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B53990A-F301-054D-BEFC-AC409E1A6D9A}">
+  <dimension ref="A3:T153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5"/>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5"/>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5"/>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5"/>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="14"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="16"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="16"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="16"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="16"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="16"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="16"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="16"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="23"/>
+      <c r="T102" s="16"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23"/>
+      <c r="S103" s="23"/>
+      <c r="T103" s="16"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="16"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="23"/>
+      <c r="S105" s="23"/>
+      <c r="T105" s="16"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="23"/>
+      <c r="P106" s="23"/>
+      <c r="Q106" s="23"/>
+      <c r="R106" s="23"/>
+      <c r="S106" s="23"/>
+      <c r="T106" s="16"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="23"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="23"/>
+      <c r="S107" s="23"/>
+      <c r="T107" s="16"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23"/>
+      <c r="S108" s="23"/>
+      <c r="T108" s="16"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="16"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="16"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="16"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="23"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="16"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="23"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="16"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="16"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="23"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="16"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="23"/>
+      <c r="R116" s="23"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="16"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="23"/>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="23"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="16"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="16"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="16"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="23"/>
+      <c r="P120" s="23"/>
+      <c r="Q120" s="23"/>
+      <c r="R120" s="23"/>
+      <c r="S120" s="23"/>
+      <c r="T120" s="16"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
+      <c r="T121" s="16"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="23"/>
+      <c r="S122" s="23"/>
+      <c r="T122" s="16"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="23"/>
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23"/>
+      <c r="R123" s="23"/>
+      <c r="S123" s="23"/>
+      <c r="T123" s="16"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="23"/>
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23"/>
+      <c r="R124" s="23"/>
+      <c r="S124" s="23"/>
+      <c r="T124" s="16"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="23"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="23"/>
+      <c r="T125" s="16"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="23"/>
+      <c r="O126" s="23"/>
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="23"/>
+      <c r="T126" s="16"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23"/>
+      <c r="T127" s="16"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="23"/>
+      <c r="Q128" s="23"/>
+      <c r="R128" s="23"/>
+      <c r="S128" s="23"/>
+      <c r="T128" s="16"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="15"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="23"/>
+      <c r="O129" s="23"/>
+      <c r="P129" s="23"/>
+      <c r="Q129" s="23"/>
+      <c r="R129" s="23"/>
+      <c r="S129" s="23"/>
+      <c r="T129" s="16"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="23"/>
+      <c r="Q130" s="23"/>
+      <c r="R130" s="23"/>
+      <c r="S130" s="23"/>
+      <c r="T130" s="16"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="15"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="23"/>
+      <c r="P131" s="23"/>
+      <c r="Q131" s="23"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="23"/>
+      <c r="T131" s="16"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="15"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="16"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="15"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="23"/>
+      <c r="T133" s="16"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="15"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="23"/>
+      <c r="N134" s="23"/>
+      <c r="O134" s="23"/>
+      <c r="P134" s="23"/>
+      <c r="Q134" s="23"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="23"/>
+      <c r="T134" s="16"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="15"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+      <c r="O135" s="23"/>
+      <c r="P135" s="23"/>
+      <c r="Q135" s="23"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="23"/>
+      <c r="T135" s="16"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="15"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="23"/>
+      <c r="O136" s="23"/>
+      <c r="P136" s="23"/>
+      <c r="Q136" s="23"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="23"/>
+      <c r="T136" s="16"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="15"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="23"/>
+      <c r="O137" s="23"/>
+      <c r="P137" s="23"/>
+      <c r="Q137" s="23"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="23"/>
+      <c r="T137" s="16"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="19"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="14"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="15"/>
+      <c r="B142" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="23"/>
+      <c r="P142" s="16"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="15"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="23"/>
+      <c r="L143" s="23"/>
+      <c r="M143" s="23"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="23"/>
+      <c r="P143" s="16"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="15"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="23"/>
+      <c r="N144" s="23"/>
+      <c r="O144" s="23"/>
+      <c r="P144" s="16"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="15"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="23"/>
+      <c r="O145" s="23"/>
+      <c r="P145" s="16"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="15"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23"/>
+      <c r="O146" s="23"/>
+      <c r="P146" s="16"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" s="15"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="23"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="23"/>
+      <c r="P147" s="16"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" s="15"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="23"/>
+      <c r="P148" s="16"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" s="15"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
+      <c r="O149" s="23"/>
+      <c r="P149" s="16"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="15"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="23"/>
+      <c r="O150" s="23"/>
+      <c r="P150" s="16"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="15"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="23"/>
+      <c r="L151" s="23"/>
+      <c r="M151" s="23"/>
+      <c r="N151" s="23"/>
+      <c r="O151" s="23"/>
+      <c r="P151" s="16"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" s="15"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="23"/>
+      <c r="L152" s="23"/>
+      <c r="M152" s="23"/>
+      <c r="N152" s="23"/>
+      <c r="O152" s="23"/>
+      <c r="P152" s="16"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
       <c r="F153" s="18"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B154" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B155" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="18"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B156" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B157" s="19"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="21"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
-      <c r="K160" s="14"/>
-      <c r="L160" s="14"/>
-      <c r="M160" s="14"/>
-      <c r="N160" s="14"/>
-      <c r="O160" s="14"/>
-      <c r="P160" s="14"/>
-      <c r="Q160" s="15"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="16"/>
-      <c r="B161" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="K161" s="14"/>
-      <c r="L161" s="14"/>
-      <c r="M161" s="14"/>
-      <c r="N161" s="14"/>
-      <c r="O161" s="14"/>
-      <c r="P161" s="15"/>
-      <c r="Q161" s="18"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A162" s="16"/>
-      <c r="B162" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
-      <c r="O163" s="17"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" s="16"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="16"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="18"/>
-      <c r="Q165" s="18"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
-      <c r="O166" s="17"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" s="16"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" s="16"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
-      <c r="N168" s="17"/>
-      <c r="O168" s="17"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="16"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="21"/>
-      <c r="Q169" s="18"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" s="16"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
-      <c r="N170" s="17"/>
-      <c r="O170" s="17"/>
-      <c r="P170" s="17"/>
-      <c r="Q170" s="18"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
-      <c r="O171" s="17"/>
-      <c r="P171" s="17"/>
-      <c r="Q171" s="18"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A172" s="16"/>
-      <c r="B172" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="14"/>
-      <c r="O172" s="14"/>
-      <c r="P172" s="15"/>
-      <c r="Q172" s="18"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="17"/>
-      <c r="N173" s="17"/>
-      <c r="O173" s="17"/>
-      <c r="P173" s="18"/>
-      <c r="Q173" s="18"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="17"/>
-      <c r="M174" s="17"/>
-      <c r="N174" s="17"/>
-      <c r="O174" s="17"/>
-      <c r="P174" s="18"/>
-      <c r="Q174" s="18"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="17"/>
-      <c r="M175" s="17"/>
-      <c r="N175" s="17"/>
-      <c r="O175" s="17"/>
-      <c r="P175" s="18"/>
-      <c r="Q175" s="18"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="17"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="17"/>
-      <c r="O176" s="17"/>
-      <c r="P176" s="18"/>
-      <c r="Q176" s="18"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="16"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
-      <c r="M177" s="17"/>
-      <c r="N177" s="17"/>
-      <c r="O177" s="17"/>
-      <c r="P177" s="18"/>
-      <c r="Q177" s="18"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="16"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="17"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="17"/>
-      <c r="O178" s="17"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="16"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="20"/>
-      <c r="O179" s="20"/>
-      <c r="P179" s="21"/>
-      <c r="Q179" s="18"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="21"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
+++ b/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/2.Xay-dung-cac-ung-dung-voi-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FA57D-05FC-BB41-ABEB-759CD7F5FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D60EE2-B1C6-BA41-857B-CF9EFB73A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2360" windowWidth="33240" windowHeight="17340" activeTab="1" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
+    <workbookView xWindow="420" yWindow="2360" windowWidth="33240" windowHeight="17340" activeTab="2" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
   </bookViews>
   <sheets>
     <sheet name="Read json" sheetId="1" r:id="rId1"/>
     <sheet name="ShowWord" sheetId="2" r:id="rId2"/>
+    <sheet name="Get_close_matches" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="145">
   <si>
     <t>構成</t>
   </si>
@@ -444,6 +445,33 @@
   </si>
   <si>
     <t xml:space="preserve">        result += '+ {}{}'.format(el, sep)</t>
+  </si>
+  <si>
+    <t>study.py</t>
+  </si>
+  <si>
+    <t># https://kite.com/python/docs/difflib.get_close_matches</t>
+  </si>
+  <si>
+    <t>myStr     = "appel"</t>
+  </si>
+  <si>
+    <t>myList    = ['ape', 'apple', 'app','peach', 'puppy']</t>
+  </si>
+  <si>
+    <t>result    = get_close_matches(myStr, myList, 1)</t>
+  </si>
+  <si>
+    <t>python/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien/study.py</t>
+  </si>
+  <si>
+    <t>Tìm trong myList các từ tương tự với myStr</t>
+  </si>
+  <si>
+    <t>Truyền vào giá trị 1 nên list trả về sẽ có 1 từ</t>
+  </si>
+  <si>
+    <t>python3 study.py</t>
   </si>
 </sst>
 </file>
@@ -611,9 +639,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,6 +1646,214 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271572</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>766792</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>71886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E22A6E8-25EE-C46C-3AE4-BCFD6E15B27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916981" y="19912642"/>
+          <a:ext cx="6254151" cy="527169"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319496</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>87861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343459</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263978A1-688B-1946-F512-08442B897865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3610314" y="20455786"/>
+          <a:ext cx="3314780" cy="207673"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71887</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93860</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>127799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AEA57D-5125-A4D9-4266-B5081B48C079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="894591" y="21813648"/>
+          <a:ext cx="9894426" cy="878616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>750818</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>183711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806729</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF77E7D-136B-3265-DD4E-1D4CFEAE6C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1573522" y="20751321"/>
+          <a:ext cx="6637547" cy="1557547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3498,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B53990A-F301-054D-BEFC-AC409E1A6D9A}">
   <dimension ref="A3:T153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView topLeftCell="A103" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4133,7 +4369,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="22" t="s">
+      <c r="D62" t="s">
         <v>87</v>
       </c>
       <c r="E62" s="1"/>
@@ -4160,7 +4396,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="22" t="s">
+      <c r="D64" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="1"/>
@@ -4488,41 +4724,12 @@
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="14"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="23"/>
-      <c r="S95" s="23"/>
       <c r="T95" s="16"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
       <c r="F96" s="16"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="23"/>
-      <c r="S96" s="23"/>
       <c r="T96" s="16"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -4530,23 +4737,7 @@
       <c r="B97" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
       <c r="F97" s="16"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
-      <c r="R97" s="23"/>
-      <c r="S97" s="23"/>
       <c r="T97" s="16"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -4554,23 +4745,7 @@
       <c r="B98" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
       <c r="F98" s="16"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-      <c r="R98" s="23"/>
-      <c r="S98" s="23"/>
       <c r="T98" s="16"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -4578,23 +4753,7 @@
       <c r="B99" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
       <c r="F99" s="16"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="23"/>
       <c r="T99" s="16"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -4602,23 +4761,7 @@
       <c r="B100" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
       <c r="F100" s="16"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
       <c r="T100" s="16"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -4626,23 +4769,7 @@
       <c r="B101" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
       <c r="F101" s="16"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="23"/>
       <c r="T101" s="16"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -4650,23 +4777,7 @@
       <c r="B102" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
       <c r="F102" s="16"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="23"/>
       <c r="T102" s="16"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -4674,23 +4785,7 @@
       <c r="B103" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="23"/>
-      <c r="S103" s="23"/>
       <c r="T103" s="16"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
@@ -4698,23 +4793,7 @@
       <c r="B104" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="23"/>
-      <c r="O104" s="23"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="23"/>
-      <c r="S104" s="23"/>
       <c r="T104" s="16"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -4722,23 +4801,7 @@
       <c r="B105" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
       <c r="F105" s="16"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="23"/>
-      <c r="N105" s="23"/>
-      <c r="O105" s="23"/>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="23"/>
-      <c r="S105" s="23"/>
       <c r="T105" s="16"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
@@ -4746,331 +4809,107 @@
       <c r="B106" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
       <c r="F106" s="16"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="23"/>
-      <c r="M106" s="23"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="23"/>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="23"/>
-      <c r="R106" s="23"/>
-      <c r="S106" s="23"/>
       <c r="T106" s="16"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="23"/>
-      <c r="R107" s="23"/>
-      <c r="S107" s="23"/>
       <c r="T107" s="16"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
       <c r="T108" s="16"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
+      <c r="B109" s="22"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
-      <c r="M109" s="23"/>
-      <c r="N109" s="23"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="23"/>
-      <c r="R109" s="23"/>
-      <c r="S109" s="23"/>
       <c r="T109" s="16"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
       <c r="F110" s="16"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
       <c r="T110" s="16"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
       <c r="F111" s="16"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
       <c r="T111" s="16"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="23"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="23"/>
-      <c r="R112" s="23"/>
-      <c r="S112" s="23"/>
       <c r="T112" s="16"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="23"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="23"/>
-      <c r="Q113" s="23"/>
-      <c r="R113" s="23"/>
-      <c r="S113" s="23"/>
       <c r="T113" s="16"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
+      <c r="B114" s="22"/>
       <c r="F114" s="16"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="23"/>
       <c r="T114" s="16"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
       <c r="F115" s="16"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="23"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="23"/>
-      <c r="Q115" s="23"/>
-      <c r="R115" s="23"/>
-      <c r="S115" s="23"/>
       <c r="T115" s="16"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
       <c r="F116" s="16"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
-      <c r="M116" s="23"/>
-      <c r="N116" s="23"/>
-      <c r="O116" s="23"/>
-      <c r="P116" s="23"/>
-      <c r="Q116" s="23"/>
-      <c r="R116" s="23"/>
-      <c r="S116" s="23"/>
       <c r="T116" s="16"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
       <c r="F117" s="16"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="23"/>
-      <c r="N117" s="23"/>
-      <c r="O117" s="23"/>
-      <c r="P117" s="23"/>
-      <c r="Q117" s="23"/>
-      <c r="R117" s="23"/>
-      <c r="S117" s="23"/>
       <c r="T117" s="16"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
       <c r="F118" s="16"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="23"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="23"/>
       <c r="T118" s="16"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="23"/>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="23"/>
       <c r="T119" s="16"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -5082,393 +4921,74 @@
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
       <c r="F120" s="19"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
-      <c r="M120" s="23"/>
-      <c r="N120" s="23"/>
-      <c r="O120" s="23"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="23"/>
-      <c r="R120" s="23"/>
-      <c r="S120" s="23"/>
       <c r="T120" s="16"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="23"/>
-      <c r="N121" s="23"/>
-      <c r="O121" s="23"/>
-      <c r="P121" s="23"/>
-      <c r="Q121" s="23"/>
-      <c r="R121" s="23"/>
-      <c r="S121" s="23"/>
       <c r="T121" s="16"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="23"/>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="23"/>
-      <c r="S122" s="23"/>
       <c r="T122" s="16"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="23"/>
-      <c r="N123" s="23"/>
-      <c r="O123" s="23"/>
-      <c r="P123" s="23"/>
-      <c r="Q123" s="23"/>
-      <c r="R123" s="23"/>
-      <c r="S123" s="23"/>
       <c r="T123" s="16"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
-      <c r="M124" s="23"/>
-      <c r="N124" s="23"/>
-      <c r="O124" s="23"/>
-      <c r="P124" s="23"/>
-      <c r="Q124" s="23"/>
-      <c r="R124" s="23"/>
-      <c r="S124" s="23"/>
       <c r="T124" s="16"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="23"/>
-      <c r="O125" s="23"/>
-      <c r="P125" s="23"/>
-      <c r="Q125" s="23"/>
-      <c r="R125" s="23"/>
-      <c r="S125" s="23"/>
       <c r="T125" s="16"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="23"/>
-      <c r="M126" s="23"/>
-      <c r="N126" s="23"/>
-      <c r="O126" s="23"/>
-      <c r="P126" s="23"/>
-      <c r="Q126" s="23"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="23"/>
       <c r="T126" s="16"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
       <c r="T127" s="16"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="23"/>
-      <c r="P128" s="23"/>
-      <c r="Q128" s="23"/>
-      <c r="R128" s="23"/>
-      <c r="S128" s="23"/>
       <c r="T128" s="16"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="23"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="23"/>
-      <c r="P129" s="23"/>
-      <c r="Q129" s="23"/>
-      <c r="R129" s="23"/>
-      <c r="S129" s="23"/>
       <c r="T129" s="16"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="23"/>
-      <c r="M130" s="23"/>
-      <c r="N130" s="23"/>
-      <c r="O130" s="23"/>
-      <c r="P130" s="23"/>
-      <c r="Q130" s="23"/>
-      <c r="R130" s="23"/>
-      <c r="S130" s="23"/>
       <c r="T130" s="16"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="23"/>
-      <c r="M131" s="23"/>
-      <c r="N131" s="23"/>
-      <c r="O131" s="23"/>
-      <c r="P131" s="23"/>
-      <c r="Q131" s="23"/>
-      <c r="R131" s="23"/>
-      <c r="S131" s="23"/>
       <c r="T131" s="16"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="23"/>
-      <c r="N132" s="23"/>
-      <c r="O132" s="23"/>
-      <c r="P132" s="23"/>
-      <c r="Q132" s="23"/>
-      <c r="R132" s="23"/>
-      <c r="S132" s="23"/>
       <c r="T132" s="16"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
-      <c r="M133" s="23"/>
-      <c r="N133" s="23"/>
-      <c r="O133" s="23"/>
-      <c r="P133" s="23"/>
-      <c r="Q133" s="23"/>
-      <c r="R133" s="23"/>
-      <c r="S133" s="23"/>
       <c r="T133" s="16"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
-      <c r="M134" s="23"/>
-      <c r="N134" s="23"/>
-      <c r="O134" s="23"/>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23"/>
       <c r="T134" s="16"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23"/>
-      <c r="M135" s="23"/>
-      <c r="N135" s="23"/>
-      <c r="O135" s="23"/>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="23"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="23"/>
       <c r="T135" s="16"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23"/>
-      <c r="M136" s="23"/>
-      <c r="N136" s="23"/>
-      <c r="O136" s="23"/>
-      <c r="P136" s="23"/>
-      <c r="Q136" s="23"/>
-      <c r="R136" s="23"/>
-      <c r="S136" s="23"/>
       <c r="T136" s="16"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="23"/>
-      <c r="M137" s="23"/>
-      <c r="N137" s="23"/>
-      <c r="O137" s="23"/>
-      <c r="P137" s="23"/>
-      <c r="Q137" s="23"/>
-      <c r="R137" s="23"/>
-      <c r="S137" s="23"/>
       <c r="T137" s="16"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
@@ -5515,202 +5035,49 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
-      <c r="B142" s="23" t="s">
+      <c r="B142" t="s">
         <v>122</v>
       </c>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="23"/>
-      <c r="M142" s="23"/>
-      <c r="N142" s="23"/>
-      <c r="O142" s="23"/>
       <c r="P142" s="16"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
-      <c r="H143" s="23"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="23"/>
-      <c r="M143" s="23"/>
-      <c r="N143" s="23"/>
-      <c r="O143" s="23"/>
       <c r="P143" s="16"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="23"/>
-      <c r="M144" s="23"/>
-      <c r="N144" s="23"/>
-      <c r="O144" s="23"/>
       <c r="P144" s="16"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="23"/>
-      <c r="M145" s="23"/>
-      <c r="N145" s="23"/>
-      <c r="O145" s="23"/>
       <c r="P145" s="16"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="23"/>
-      <c r="M146" s="23"/>
-      <c r="N146" s="23"/>
-      <c r="O146" s="23"/>
       <c r="P146" s="16"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="23"/>
-      <c r="M147" s="23"/>
-      <c r="N147" s="23"/>
-      <c r="O147" s="23"/>
       <c r="P147" s="16"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="23"/>
-      <c r="N148" s="23"/>
-      <c r="O148" s="23"/>
       <c r="P148" s="16"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="23"/>
-      <c r="M149" s="23"/>
-      <c r="N149" s="23"/>
-      <c r="O149" s="23"/>
       <c r="P149" s="16"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="15"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="23"/>
-      <c r="N150" s="23"/>
-      <c r="O150" s="23"/>
       <c r="P150" s="16"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="15"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="23"/>
-      <c r="M151" s="23"/>
-      <c r="N151" s="23"/>
-      <c r="O151" s="23"/>
       <c r="P151" s="16"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="15"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="23"/>
-      <c r="M152" s="23"/>
-      <c r="N152" s="23"/>
-      <c r="O152" s="23"/>
       <c r="P152" s="16"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -5735,4 +5102,1193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CFA278-E4AE-054D-8A74-F4C5BC2B8E4E}">
+  <dimension ref="A3:N114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="159" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5"/>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5"/>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5"/>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5"/>
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5"/>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B98" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B99" s="15"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B100" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B101" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="16"/>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B104" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="16"/>
+      <c r="H104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="16"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="16"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="16"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="16"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="16"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
+++ b/me/2.Xay-dung-cac-ung-dung-voi-python/1.ung-dung-tra-tu-dien.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/2.Xay-dung-cac-ung-dung-voi-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D60EE2-B1C6-BA41-857B-CF9EFB73A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2660E-C4F3-F24E-9CF3-B4DECD72964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2360" windowWidth="33240" windowHeight="17340" activeTab="2" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
+    <workbookView xWindow="420" yWindow="2360" windowWidth="33240" windowHeight="17340" activeTab="3" xr2:uid="{B11D61D0-1AF1-B44B-8722-40AD1F084150}"/>
   </bookViews>
   <sheets>
     <sheet name="Read json" sheetId="1" r:id="rId1"/>
     <sheet name="ShowWord" sheetId="2" r:id="rId2"/>
     <sheet name="Get_close_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Finish" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="162">
   <si>
     <t>構成</t>
   </si>
@@ -472,13 +473,130 @@
   </si>
   <si>
     <t>python3 study.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        listSuggest = get_close_matches(keyword, data.keys(), 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(len(listSuggest) &gt; 0) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for suggest in listSuggest:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confirm = input("Bạn muốn tìm từ: {} (Enter y if yes, or n if no): ".format(suggest) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (confirm == "y"):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    result = showWord(data[suggest])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                elif (confirm == "n"):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    result = "No valid"</t>
+  </si>
+  <si>
+    <t>Chuyển qua từ kế tiếp nằm trong list</t>
+  </si>
+  <si>
+    <t>Duyệt qua list các từ gần giống lấy được bằng get_close_matches(), confirm user xem đây có phải là từ cần tìm hay không</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">confirm nhập vào không phải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cũng không phải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Sau khi tìm được từ cần tìm rồi thì không cần chuyển qua từ tiếp theo nằm trong list nữa</t>
+  </si>
+  <si>
+    <t>Kết thúc vòng lặp</t>
+  </si>
+  <si>
+    <r>
+      <t>Nhập "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" để tìm kiếm và muốn tìm kiếm là từ "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>live</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,6 +617,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -616,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -642,6 +765,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,6 +1979,317 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>148538</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>89122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116691</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>109481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE55DFF0-387D-C7B9-1234-03334A3292D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="969659" y="27755415"/>
+          <a:ext cx="13927204" cy="3972687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21896</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120431</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9DEF38-1BD5-215D-3D41-E341B04F1334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9054224" y="21995086"/>
+          <a:ext cx="4204138" cy="536466"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580259</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120431</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C36553-2A8F-453C-0DDA-8945B4842032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10433707" y="22630086"/>
+          <a:ext cx="2824655" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>50530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01138A5-B1A4-0D5E-A3B6-58022D9259F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="924560" y="31995534"/>
+          <a:ext cx="12781280" cy="2802196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00313DDA-1D3B-1D83-C210-C4F2BEE6BE54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2672080" y="31882080"/>
+          <a:ext cx="1117600" cy="1381760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6153C17-8A99-9283-267D-7BC61565C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3799840" y="31882080"/>
+          <a:ext cx="1899920" cy="1391920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5108,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CFA278-E4AE-054D-8A74-F4C5BC2B8E4E}">
   <dimension ref="A3:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="159" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView topLeftCell="A95" zoomScale="159" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5754,7 +6190,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="23" t="s">
+      <c r="D63" t="s">
         <v>88</v>
       </c>
       <c r="E63" s="1"/>
@@ -6091,59 +6527,38 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B98" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
       <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
       <c r="F99" s="16"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
       <c r="F101" s="16"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
       <c r="F103" s="16"/>
       <c r="G103" t="s">
         <v>83</v>
@@ -6156,9 +6571,6 @@
       <c r="B104" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
       <c r="F104" s="16"/>
       <c r="H104" t="s">
         <v>143</v>
@@ -6191,84 +6603,25 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="24" t="s">
+      <c r="B109" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
       <c r="N109" s="16"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
       <c r="N110" s="16"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
       <c r="N111" s="16"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="24"/>
       <c r="N112" s="16"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
       <c r="N113" s="16"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -6291,4 +6644,2657 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A18729-CB62-4E46-ABA8-7E7480557D3C}">
+  <dimension ref="A3:S173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5"/>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5"/>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5"/>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5"/>
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5"/>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="14"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="16"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="16"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K106" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="16"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K114" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="16"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="24"/>
+      <c r="S115" s="16"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="24"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="24"/>
+      <c r="Q116" s="24"/>
+      <c r="R116" s="24"/>
+      <c r="S116" s="16"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="16"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="16"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="24"/>
+      <c r="S119" s="16"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="16"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="16"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="16"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="16"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="16"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="24"/>
+      <c r="R125" s="24"/>
+      <c r="S125" s="16"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="16"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="16"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="16"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="16"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="24"/>
+      <c r="R130" s="24"/>
+      <c r="S130" s="16"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24"/>
+      <c r="S131" s="16"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" s="15"/>
+      <c r="B132" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="24"/>
+      <c r="S132" s="16"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" s="15"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24"/>
+      <c r="R133" s="24"/>
+      <c r="S133" s="16"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" s="15"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="16"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" s="15"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="24"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
+      <c r="S135" s="16"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" s="15"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="24"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="24"/>
+      <c r="R136" s="24"/>
+      <c r="S136" s="16"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" s="15"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="24"/>
+      <c r="R137" s="24"/>
+      <c r="S137" s="16"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" s="15"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="24"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="24"/>
+      <c r="R138" s="24"/>
+      <c r="S138" s="16"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" s="15"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="24"/>
+      <c r="P139" s="24"/>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="16"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" s="15"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="24"/>
+      <c r="O140" s="24"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="24"/>
+      <c r="R140" s="24"/>
+      <c r="S140" s="16"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" s="15"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="24"/>
+      <c r="O141" s="24"/>
+      <c r="P141" s="24"/>
+      <c r="Q141" s="24"/>
+      <c r="R141" s="24"/>
+      <c r="S141" s="16"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" s="15"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="24"/>
+      <c r="R142" s="24"/>
+      <c r="S142" s="16"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" s="15"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="24"/>
+      <c r="R143" s="24"/>
+      <c r="S143" s="16"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" s="15"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="24"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="24"/>
+      <c r="R144" s="24"/>
+      <c r="S144" s="16"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="15"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="16"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" s="15"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="16"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" s="15"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="24"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="24"/>
+      <c r="Q147" s="24"/>
+      <c r="R147" s="24"/>
+      <c r="S147" s="16"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" s="15"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
+      <c r="R148" s="24"/>
+      <c r="S148" s="16"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" s="15"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
+      <c r="R149" s="24"/>
+      <c r="S149" s="16"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" s="15"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
+      <c r="R150" s="24"/>
+      <c r="S150" s="16"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="15"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
+      <c r="N151" s="24"/>
+      <c r="O151" s="24"/>
+      <c r="P151" s="24"/>
+      <c r="Q151" s="24"/>
+      <c r="R151" s="24"/>
+      <c r="S151" s="16"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="15"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+      <c r="M152" s="24"/>
+      <c r="N152" s="24"/>
+      <c r="O152" s="24"/>
+      <c r="P152" s="24"/>
+      <c r="Q152" s="24"/>
+      <c r="R152" s="24"/>
+      <c r="S152" s="16"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="19"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="14"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="26"/>
+      <c r="B157" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="16"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" s="15"/>
+      <c r="B158" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="24"/>
+      <c r="O158" s="24"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="16"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" s="15"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="24"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="16"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160" s="15"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="16"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" s="15"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="16"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" s="15"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="24"/>
+      <c r="O162" s="24"/>
+      <c r="P162" s="24"/>
+      <c r="Q162" s="16"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="24"/>
+      <c r="O163" s="24"/>
+      <c r="P163" s="24"/>
+      <c r="Q163" s="16"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" s="15"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="24"/>
+      <c r="O164" s="24"/>
+      <c r="P164" s="24"/>
+      <c r="Q164" s="16"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" s="15"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="16"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" s="15"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="24"/>
+      <c r="O166" s="24"/>
+      <c r="P166" s="24"/>
+      <c r="Q166" s="16"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="24"/>
+      <c r="P167" s="24"/>
+      <c r="Q167" s="16"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="24"/>
+      <c r="O168" s="24"/>
+      <c r="P168" s="24"/>
+      <c r="Q168" s="16"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="24"/>
+      <c r="Q169" s="16"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="24"/>
+      <c r="P170" s="24"/>
+      <c r="Q170" s="16"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" s="15"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="24"/>
+      <c r="P171" s="24"/>
+      <c r="Q171" s="16"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" s="15"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="24"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24"/>
+      <c r="Q172" s="16"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" s="17"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>